--- a/Excel with EP Plus/Models/geeksforgeeks2.xlsx
+++ b/Excel with EP Plus/Models/geeksforgeeks2.xlsx
@@ -12,9 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>101</t>
@@ -23,7 +32,7 @@
     <t>C++</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>102</t>
@@ -32,7 +41,7 @@
     <t>Python</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>103</t>
@@ -41,7 +50,7 @@
     <t>Java Script</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>104</t>
@@ -50,7 +59,7 @@
     <t>GO</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>105</t>
@@ -59,7 +68,7 @@
     <t>Java</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>106</t>
@@ -73,8 +82,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -99,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,7 +131,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -125,14 +142,14 @@
     <col min="3" max="3" width="10.638701438903809" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="20" customHeight="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -189,6 +206,17 @@
       </c>
       <c r="C6" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
